--- a/jpcore-r4/feature/swg2-diagnosticreport-radiology/ValueSet-jp-allergyintolerance-vs.xlsx
+++ b/jpcore-r4/feature/swg2-diagnosticreport-radiology/ValueSet-jp-allergyintolerance-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-31T08:52:30+00:00</t>
+    <t>2022-08-31T10:13:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg2-diagnosticreport-radiology/ValueSet-jp-allergyintolerance-vs.xlsx
+++ b/jpcore-r4/feature/swg2-diagnosticreport-radiology/ValueSet-jp-allergyintolerance-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-31T10:13:48+00:00</t>
+    <t>2022-09-01T00:29:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -83,7 +83,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>アレルギー・不耐症に関連するアレルゲンコード</t>
+    <t>アレルギー・不耐症に関連するアレルゲン値セット</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/jpcore-r4/feature/swg2-diagnosticreport-radiology/ValueSet-jp-allergyintolerance-vs.xlsx
+++ b/jpcore-r4/feature/swg2-diagnosticreport-radiology/ValueSet-jp-allergyintolerance-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T00:29:56+00:00</t>
+    <t>2022-09-01T02:21:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
